--- a/ERP_Accounting/TestOutput/Hybrid.xlsx
+++ b/ERP_Accounting/TestOutput/Hybrid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="4620" windowWidth="14295" xWindow="480" yWindow="120"/>
+    <workbookView activeTab="2" windowHeight="4620" windowWidth="14295" xWindow="480" yWindow="120"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="103">
   <si>
     <t>TCID</t>
   </si>
@@ -157,10 +157,175 @@
     <t>N</t>
   </si>
   <si>
+    <t>Wait for Supplier</t>
+  </si>
+  <si>
+    <t>Click On Supplier</t>
+  </si>
+  <si>
+    <t>Wait For Add Button</t>
+  </si>
+  <si>
+    <t>Click On Add Button</t>
+  </si>
+  <si>
+    <t>Wait For SupplierNumber</t>
+  </si>
+  <si>
+    <t>Capture Data</t>
+  </si>
+  <si>
+    <t>captureData</t>
+  </si>
+  <si>
+    <t>Wait For SupplierName</t>
+  </si>
+  <si>
+    <t>Enter Supplier Name</t>
+  </si>
+  <si>
+    <t>Motorlla</t>
+  </si>
+  <si>
+    <t>Wait For Address</t>
+  </si>
+  <si>
+    <t>Enter Address</t>
+  </si>
+  <si>
+    <t>New Area Colony</t>
+  </si>
+  <si>
+    <t>Wait For City</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Wait For Country</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Wait For Contact Person</t>
+  </si>
+  <si>
+    <t>Enter Contact Person</t>
+  </si>
+  <si>
+    <t>jamal321</t>
+  </si>
+  <si>
+    <t>Wait For Phone Number</t>
+  </si>
+  <si>
+    <t>Enter Phone Number</t>
+  </si>
+  <si>
+    <t>Wait For Email</t>
+  </si>
+  <si>
+    <t>Enter Email ID</t>
+  </si>
+  <si>
+    <t>danish@gmail.com</t>
+  </si>
+  <si>
+    <t>Wait For Mobile Number</t>
+  </si>
+  <si>
+    <t>Enter Mobile Number</t>
+  </si>
+  <si>
+    <t>Wait For Notes</t>
+  </si>
+  <si>
+    <t>Enter the Note</t>
+  </si>
+  <si>
+    <t>Purchase done.</t>
+  </si>
+  <si>
+    <t>Wait For Ok Button</t>
+  </si>
+  <si>
+    <t>Click On Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait For Alert </t>
+  </si>
+  <si>
+    <t>Click On Alert</t>
+  </si>
+  <si>
+    <t>Table Validation</t>
+  </si>
+  <si>
+    <t>tableValidation</t>
+  </si>
+  <si>
+    <t>CloseBrowser</t>
+  </si>
+  <si>
+    <t>//li[@id='mi_a_suppliers']</t>
+  </si>
+  <si>
+    <t>//*[@id='x_Supplier_Number']</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>x_Supplier_Name</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>(//*[text()='OK!'])[1]</t>
+  </si>
+  <si>
+    <t>(//*[text()='OK'])[6]</t>
+  </si>
+  <si>
+    <t>//*[@id="ewContentColumn"]/div[3]/div[1]/div[1]/div[1]/div/a/span</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Not Executed</t>
   </si>
 </sst>
 </file>
@@ -168,7 +333,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="35">
+  <fonts count="91">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,165 +380,502 @@
       <family val="2"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -473,10 +975,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="97">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -488,8 +994,10 @@
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -516,8 +1024,65 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -812,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -844,10 +1409,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="36">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D2" t="s" s="15">
+        <v>101</v>
       </c>
     </row>
     <row ht="18.75" r="3" spans="1:4">
@@ -858,10 +1423,10 @@
         <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s" s="37">
-        <v>47</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="95">
+        <v>102</v>
       </c>
     </row>
     <row ht="18.75" r="4" spans="1:4">
@@ -874,8 +1439,8 @@
       <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s" s="38">
-        <v>47</v>
+      <c r="D4" t="s" s="96">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +1454,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -938,9 +1503,7 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="11">
-        <v>46</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row ht="18.75" r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -958,9 +1521,7 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="13">
-        <v>46</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row ht="18.75" r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -978,9 +1539,7 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="15">
-        <v>46</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row ht="18.75" r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -998,9 +1557,7 @@
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s" s="17">
-        <v>46</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row ht="18.75" r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -1018,9 +1575,7 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="19">
-        <v>46</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row ht="18.75" r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -1038,9 +1593,7 @@
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s" s="21">
-        <v>46</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row ht="18.75" r="8" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -1058,9 +1611,7 @@
       <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="23">
-        <v>46</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row ht="20.25" r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -1078,9 +1629,7 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s" s="25">
-        <v>46</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row ht="18.75" r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -1098,9 +1647,7 @@
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="27">
-        <v>46</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
     <row ht="18.75" r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -1118,9 +1665,7 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s" s="29">
-        <v>46</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row ht="20.25" r="12" spans="1:6">
       <c r="A12" s="1" t="s">
@@ -1138,9 +1683,7 @@
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="31">
-        <v>46</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row ht="20.25" r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -1158,9 +1701,7 @@
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" t="s" s="33">
-        <v>46</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row ht="20.25" r="14" spans="1:6">
       <c r="A14" s="1" t="s">
@@ -1178,9 +1719,7 @@
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s" s="35">
-        <v>46</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1189,13 +1728,848 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="32.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="24.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="63.7109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="25.85546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.5703125" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="18.75" r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="18.75" r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="16">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="20">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s" s="22">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="24">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s" s="26">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="28">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="20.25" r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s" s="30">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="32">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="11" spans="1:6">
+      <c r="A11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="34">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="12" spans="1:6">
+      <c r="A12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="36">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="13" spans="1:6">
+      <c r="A13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="38">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="14" spans="1:6">
+      <c r="A14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="40">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="15" spans="1:6">
+      <c r="A15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s" s="42">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="16" spans="1:6">
+      <c r="A16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s" s="44">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s" s="46">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s" s="48">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="19" spans="1:6">
+      <c r="A19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s" s="50">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="20" spans="1:6">
+      <c r="A20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s" s="52">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="21" spans="1:6">
+      <c r="A21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s" s="54">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="22" spans="1:6">
+      <c r="A22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s" s="56">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="23" spans="1:6">
+      <c r="A23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s" s="58">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="24" spans="1:6">
+      <c r="A24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="60">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="25" spans="1:6">
+      <c r="A25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s" s="62">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="26" spans="1:6">
+      <c r="A26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="64">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="27" spans="1:6">
+      <c r="A27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="11">
+        <v>6252509890</v>
+      </c>
+      <c r="F27" t="s" s="66">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="28" spans="1:6">
+      <c r="A28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="68">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="29" spans="1:6">
+      <c r="A29" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s" s="70">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="30" spans="1:6">
+      <c r="A30" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s" s="72">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="31" spans="1:6">
+      <c r="A31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="1">
+        <v>645746634</v>
+      </c>
+      <c r="F31" t="s" s="74">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="32" spans="1:6">
+      <c r="A32" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s" s="76">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="33" spans="1:6">
+      <c r="A33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s" s="78">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="34" spans="1:6">
+      <c r="A34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s" s="80">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="35" spans="1:6">
+      <c r="A35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s" s="82">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="36" spans="1:6">
+      <c r="A36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s" s="84">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="37" spans="1:6">
+      <c r="A37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s" s="86">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="38" spans="1:6">
+      <c r="A38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s" s="88">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="39" spans="1:6">
+      <c r="A39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s" s="90">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="40" spans="1:6">
+      <c r="A40" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s" s="92">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="18.75" r="41" spans="1:6">
+      <c r="A41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s" s="94">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E29"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ERP_Accounting/TestOutput/Hybrid.xlsx
+++ b/ERP_Accounting/TestOutput/Hybrid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="4620" windowWidth="14295" xWindow="480" yWindow="120"/>
+    <workbookView windowHeight="4620" windowWidth="14295" xWindow="480" yWindow="120"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="116">
   <si>
     <t>TCID</t>
   </si>
@@ -154,9 +154,6 @@
     <t>StockCategories</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Wait for Supplier</t>
   </si>
   <si>
@@ -184,45 +181,30 @@
     <t>Enter Supplier Name</t>
   </si>
   <si>
-    <t>Motorlla</t>
-  </si>
-  <si>
     <t>Wait For Address</t>
   </si>
   <si>
     <t>Enter Address</t>
   </si>
   <si>
-    <t>New Area Colony</t>
-  </si>
-  <si>
     <t>Wait For City</t>
   </si>
   <si>
     <t>Enter City</t>
   </si>
   <si>
-    <t>Chennai</t>
-  </si>
-  <si>
     <t>Wait For Country</t>
   </si>
   <si>
     <t>Enter Country</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>Wait For Contact Person</t>
   </si>
   <si>
     <t>Enter Contact Person</t>
   </si>
   <si>
-    <t>jamal321</t>
-  </si>
-  <si>
     <t>Wait For Phone Number</t>
   </si>
   <si>
@@ -322,7 +304,64 @@
     <t>//*[@id="ewContentColumn"]/div[3]/div[1]/div[1]/div[1]/div/a/span</t>
   </si>
   <si>
-    <t>Not Executed</t>
+    <t>Wait For Stock Item</t>
+  </si>
+  <si>
+    <t>Mouse Click</t>
+  </si>
+  <si>
+    <t>stockCategories</t>
+  </si>
+  <si>
+    <t>Wait For Category Name</t>
+  </si>
+  <si>
+    <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>Click on Add Button</t>
+  </si>
+  <si>
+    <t>Wait For OK Button</t>
+  </si>
+  <si>
+    <t>Click On Ok Button</t>
+  </si>
+  <si>
+    <t>Wait For Alert Button</t>
+  </si>
+  <si>
+    <t>Click On Alert Button</t>
+  </si>
+  <si>
+    <t>stockValidation</t>
+  </si>
+  <si>
+    <t>//li[@id='mi_a_stock_items']//a[contains(text(),'Stock Items')]</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Category_Name']</t>
+  </si>
+  <si>
+    <t>//button[@id='btnAction']</t>
+  </si>
+  <si>
+    <t>HTC Mobile2</t>
+  </si>
+  <si>
+    <t>Motorlla1</t>
+  </si>
+  <si>
+    <t>New Area Colony1</t>
+  </si>
+  <si>
+    <t>Chennai1</t>
+  </si>
+  <si>
+    <t>India1</t>
+  </si>
+  <si>
+    <t>jamal3211</t>
   </si>
   <si>
     <t>Pass</t>
@@ -333,7 +372,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="91">
+  <fonts count="159">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,493 +434,901 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -982,7 +1429,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -998,6 +1445,7 @@
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="1"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1080,6 +1528,74 @@
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1377,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1409,10 +1925,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s" s="15">
-        <v>101</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="41">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="3" spans="1:4">
@@ -1425,8 +1941,8 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="95">
-        <v>102</v>
+      <c r="D3" t="s" s="121">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="4" spans="1:4">
@@ -1437,10 +1953,10 @@
         <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s" s="96">
-        <v>101</v>
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="165">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1970,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1503,7 +2019,9 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" t="s" s="16">
+        <v>115</v>
+      </c>
     </row>
     <row ht="18.75" r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -1521,7 +2039,9 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" t="s" s="18">
+        <v>115</v>
+      </c>
     </row>
     <row ht="18.75" r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -1539,7 +2059,9 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" t="s" s="20">
+        <v>115</v>
+      </c>
     </row>
     <row ht="18.75" r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -1557,7 +2079,9 @@
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" t="s" s="22">
+        <v>115</v>
+      </c>
     </row>
     <row ht="18.75" r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -1575,7 +2099,9 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" t="s" s="24">
+        <v>115</v>
+      </c>
     </row>
     <row ht="18.75" r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -1593,7 +2119,9 @@
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" t="s" s="26">
+        <v>115</v>
+      </c>
     </row>
     <row ht="18.75" r="8" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -1611,7 +2139,9 @@
       <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" t="s" s="28">
+        <v>115</v>
+      </c>
     </row>
     <row ht="20.25" r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -1629,7 +2159,9 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" t="s" s="30">
+        <v>115</v>
+      </c>
     </row>
     <row ht="18.75" r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -1647,7 +2179,9 @@
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" t="s" s="32">
+        <v>115</v>
+      </c>
     </row>
     <row ht="18.75" r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -1665,7 +2199,9 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" t="s" s="34">
+        <v>115</v>
+      </c>
     </row>
     <row ht="20.25" r="12" spans="1:6">
       <c r="A12" s="1" t="s">
@@ -1683,7 +2219,9 @@
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" t="s" s="36">
+        <v>115</v>
+      </c>
     </row>
     <row ht="20.25" r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -1701,7 +2239,9 @@
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" t="s" s="38">
+        <v>115</v>
+      </c>
     </row>
     <row ht="20.25" r="14" spans="1:6">
       <c r="A14" s="1" t="s">
@@ -1719,7 +2259,9 @@
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" t="s" s="40">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1730,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1780,8 +2322,8 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="16">
-        <v>102</v>
+      <c r="F2" t="s" s="42">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="3" spans="1:6">
@@ -1800,8 +2342,8 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="18">
-        <v>102</v>
+      <c r="F3" t="s" s="44">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="4" spans="1:6">
@@ -1820,8 +2362,8 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="20">
-        <v>102</v>
+      <c r="F4" t="s" s="46">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="5" spans="1:6">
@@ -1840,8 +2382,8 @@
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s" s="22">
-        <v>102</v>
+      <c r="F5" t="s" s="48">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="6" spans="1:6">
@@ -1860,8 +2402,8 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="24">
-        <v>102</v>
+      <c r="F6" t="s" s="50">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="7" spans="1:6">
@@ -1880,8 +2422,8 @@
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s" s="26">
-        <v>102</v>
+      <c r="F7" t="s" s="52">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="8" spans="1:6">
@@ -1900,8 +2442,8 @@
       <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="28">
-        <v>102</v>
+      <c r="F8" t="s" s="54">
+        <v>115</v>
       </c>
     </row>
     <row ht="20.25" r="9" spans="1:6">
@@ -1920,13 +2462,13 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s" s="30">
-        <v>102</v>
+      <c r="F9" t="s" s="56">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="10" spans="1:6">
       <c r="A10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>18</v>
@@ -1935,18 +2477,18 @@
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="32">
-        <v>102</v>
+      <c r="F10" t="s" s="58">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="11" spans="1:6">
       <c r="A11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>30</v>
@@ -1955,18 +2497,18 @@
         <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s" s="34">
-        <v>102</v>
+      <c r="F11" t="s" s="60">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="12" spans="1:6">
       <c r="A12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>18</v>
@@ -1975,18 +2517,18 @@
         <v>31</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="36">
-        <v>102</v>
+      <c r="F12" t="s" s="62">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="13" spans="1:6">
       <c r="A13" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>30</v>
@@ -1995,18 +2537,18 @@
         <v>31</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F13" t="s" s="38">
-        <v>102</v>
+      <c r="F13" t="s" s="64">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>18</v>
@@ -2015,38 +2557,38 @@
         <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="40">
-        <v>102</v>
+      <c r="F14" t="s" s="66">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="15" spans="1:6">
       <c r="A15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s" s="42">
-        <v>102</v>
+      <c r="F15" t="s" s="68">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="16" spans="1:6">
       <c r="A16" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>18</v>
@@ -2055,18 +2597,18 @@
         <v>19</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
       </c>
-      <c r="F16" t="s" s="44">
-        <v>102</v>
+      <c r="F16" t="s" s="70">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="17" spans="1:6">
       <c r="A17" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>23</v>
@@ -2075,18 +2617,18 @@
         <v>19</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s" s="46">
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="F17" t="s" s="72">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="18" spans="1:6">
       <c r="A18" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>18</v>
@@ -2095,18 +2637,18 @@
         <v>31</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
       </c>
-      <c r="F18" t="s" s="48">
-        <v>102</v>
+      <c r="F18" t="s" s="74">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="19" spans="1:6">
       <c r="A19" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>23</v>
@@ -2115,18 +2657,18 @@
         <v>31</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" t="s" s="50">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="F19" t="s" s="76">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="20" spans="1:6">
       <c r="A20" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>18</v>
@@ -2135,18 +2677,18 @@
         <v>31</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
       </c>
-      <c r="F20" t="s" s="52">
-        <v>102</v>
+      <c r="F20" t="s" s="78">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="21" spans="1:6">
       <c r="A21" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>23</v>
@@ -2155,18 +2697,18 @@
         <v>31</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" t="s" s="54">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="F21" t="s" s="80">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="22" spans="1:6">
       <c r="A22" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>18</v>
@@ -2175,18 +2717,18 @@
         <v>31</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
       </c>
-      <c r="F22" t="s" s="56">
-        <v>102</v>
+      <c r="F22" t="s" s="82">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>23</v>
@@ -2195,18 +2737,18 @@
         <v>31</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" t="s" s="58">
-        <v>102</v>
+        <v>113</v>
+      </c>
+      <c r="F23" t="s" s="84">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="24" spans="1:6">
       <c r="A24" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>18</v>
@@ -2215,18 +2757,18 @@
         <v>31</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="60">
-        <v>102</v>
+      <c r="F24" t="s" s="86">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="25" spans="1:6">
       <c r="A25" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>23</v>
@@ -2235,18 +2777,18 @@
         <v>31</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" t="s" s="62">
-        <v>102</v>
+        <v>114</v>
+      </c>
+      <c r="F25" t="s" s="88">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="26" spans="1:6">
       <c r="A26" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>18</v>
@@ -2255,18 +2797,18 @@
         <v>31</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="64">
-        <v>102</v>
+      <c r="F26" t="s" s="90">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="27" spans="1:6">
       <c r="A27" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>23</v>
@@ -2275,18 +2817,18 @@
         <v>31</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E27" s="11">
         <v>6252509890</v>
       </c>
-      <c r="F27" t="s" s="66">
-        <v>102</v>
+      <c r="F27" t="s" s="92">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="28" spans="1:6">
       <c r="A28" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>18</v>
@@ -2295,18 +2837,18 @@
         <v>31</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E28" s="1">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="68">
-        <v>102</v>
+      <c r="F28" t="s" s="94">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="29" spans="1:6">
       <c r="A29" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>23</v>
@@ -2315,18 +2857,18 @@
         <v>31</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" t="s" s="70">
-        <v>102</v>
+        <v>66</v>
+      </c>
+      <c r="F29" t="s" s="96">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="30" spans="1:6">
       <c r="A30" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>18</v>
@@ -2335,18 +2877,18 @@
         <v>31</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E30" s="1">
         <v>10</v>
       </c>
-      <c r="F30" t="s" s="72">
-        <v>102</v>
+      <c r="F30" t="s" s="98">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="31" spans="1:6">
       <c r="A31" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>23</v>
@@ -2355,18 +2897,18 @@
         <v>31</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1">
-        <v>645746634</v>
-      </c>
-      <c r="F31" t="s" s="74">
-        <v>102</v>
+        <v>1645746634</v>
+      </c>
+      <c r="F31" t="s" s="100">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="32" spans="1:6">
       <c r="A32" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>18</v>
@@ -2375,18 +2917,18 @@
         <v>31</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E32" s="1">
         <v>10</v>
       </c>
-      <c r="F32" t="s" s="76">
-        <v>102</v>
+      <c r="F32" t="s" s="102">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="33" spans="1:6">
       <c r="A33" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>23</v>
@@ -2395,18 +2937,18 @@
         <v>31</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" t="s" s="78">
-        <v>102</v>
+        <v>71</v>
+      </c>
+      <c r="F33" t="s" s="104">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="34" spans="1:6">
       <c r="A34" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>18</v>
@@ -2415,18 +2957,18 @@
         <v>19</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E34" s="1">
         <v>10</v>
       </c>
-      <c r="F34" t="s" s="80">
-        <v>102</v>
+      <c r="F34" t="s" s="106">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="35" spans="1:6">
       <c r="A35" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>30</v>
@@ -2435,18 +2977,18 @@
         <v>19</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F35" t="s" s="82">
-        <v>102</v>
+      <c r="F35" t="s" s="108">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="36" spans="1:6">
       <c r="A36" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>18</v>
@@ -2455,18 +2997,18 @@
         <v>31</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E36" s="1">
         <v>10</v>
       </c>
-      <c r="F36" t="s" s="84">
-        <v>102</v>
+      <c r="F36" t="s" s="110">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="37" spans="1:6">
       <c r="A37" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>30</v>
@@ -2475,18 +3017,18 @@
         <v>31</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F37" t="s" s="86">
-        <v>102</v>
+      <c r="F37" t="s" s="112">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="38" spans="1:6">
       <c r="A38" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>18</v>
@@ -2495,18 +3037,18 @@
         <v>31</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E38" s="1">
         <v>10</v>
       </c>
-      <c r="F38" t="s" s="88">
-        <v>102</v>
+      <c r="F38" t="s" s="114">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="39" spans="1:6">
       <c r="A39" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>30</v>
@@ -2515,21 +3057,21 @@
         <v>31</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F39" t="s" s="90">
-        <v>102</v>
+      <c r="F39" t="s" s="116">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="40" spans="1:6">
       <c r="A40" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>14</v>
@@ -2540,13 +3082,13 @@
       <c r="E40" s="1">
         <v>6</v>
       </c>
-      <c r="F40" t="s" s="92">
-        <v>102</v>
+      <c r="F40" t="s" s="118">
+        <v>115</v>
       </c>
     </row>
     <row ht="18.75" r="41" spans="1:6">
       <c r="A41" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>38</v>
@@ -2560,8 +3102,8 @@
       <c r="E41" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F41" t="s" s="94">
-        <v>102</v>
+      <c r="F41" t="s" s="120">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2575,14 +3117,483 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="23.28515625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="58.7109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="25.5703125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="18.75" r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="18.75" r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="122">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="124">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="126">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s" s="128">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="130">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s" s="132">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="134">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="20.25" r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s" s="136">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="12">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="138">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="11" spans="1:6">
+      <c r="A11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="140">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="12" spans="1:6">
+      <c r="A12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="142">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="13" spans="1:6">
+      <c r="A13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="144">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="14" spans="1:6">
+      <c r="A14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="12">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="146">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="15" spans="1:6">
+      <c r="A15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s" s="148">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="16" spans="1:6">
+      <c r="A16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="12">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s" s="150">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s" s="152">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="12">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s" s="154">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="19" spans="1:6">
+      <c r="A19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="156">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="20" spans="1:6">
+      <c r="A20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="12">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s" s="158">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="21" spans="1:6">
+      <c r="A21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s" s="160">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="22" spans="1:6">
+      <c r="A22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" t="s" s="162">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="18.75" r="23" spans="1:6">
+      <c r="A23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s" s="164">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>